--- a/data/outputs/OR_elsevier/13.xlsx
+++ b/data/outputs/OR_elsevier/13.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS90"/>
+  <dimension ref="A1:BU90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -949,6 +959,12 @@
           <t>2-s2.0-84942372962</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1176,6 +1192,12 @@
           <t>2-s2.0-84942368807</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1390,6 +1412,12 @@
         <is>
           <t>2-s2.0-84942369993</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1602,6 +1630,12 @@
           <t>2-s2.0-84942371375</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1815,6 +1849,12 @@
           <t>2-s2.0-84942373618</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2026,6 +2066,12 @@
           <t>2-s2.0-84942366457</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2245,6 +2291,12 @@
           <t>2-s2.0-84942367985</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2471,6 +2523,12 @@
         <is>
           <t>2-s2.0-84942373853</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2663,6 +2721,12 @@
           <t>2-s2.0-84942371959</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2882,6 +2946,12 @@
           <t>2-s2.0-84940462516</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3101,6 +3171,12 @@
           <t>2-s2.0-84940461579</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3324,6 +3400,12 @@
           <t>2-s2.0-84940459279</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3543,6 +3625,12 @@
           <t>2-s2.0-84940461424</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3762,6 +3850,12 @@
           <t>2-s2.0-84940461977</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3989,6 +4083,12 @@
           <t>2-s2.0-84940460567</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4212,6 +4312,12 @@
           <t>2-s2.0-84940460814</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4431,6 +4537,12 @@
           <t>2-s2.0-84940460257</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4649,6 +4761,12 @@
         <is>
           <t>2-s2.0-84940460735</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -4861,6 +4979,12 @@
           <t>2-s2.0-84940462975</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5088,6 +5212,12 @@
           <t>2-s2.0-84938417557</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5315,6 +5445,12 @@
           <t>2-s2.0-84938416025</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5542,6 +5678,12 @@
           <t>2-s2.0-84938422494</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5769,6 +5911,12 @@
           <t>2-s2.0-84938419812</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5992,6 +6140,12 @@
           <t>2-s2.0-84938414556</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6214,6 +6368,12 @@
         <is>
           <t>2-s2.0-84938418612</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -6426,6 +6586,12 @@
           <t>2-s2.0-84938419753</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6653,6 +6819,12 @@
           <t>2-s2.0-84931572956</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6876,6 +7048,12 @@
           <t>2-s2.0-84931564799</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7095,6 +7273,12 @@
           <t>2-s2.0-84931568883</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7314,6 +7498,12 @@
           <t>2-s2.0-84931566234</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7537,6 +7727,12 @@
           <t>2-s2.0-84931578224</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7756,6 +7952,12 @@
           <t>2-s2.0-84931564589</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7978,6 +8180,12 @@
         <is>
           <t>2-s2.0-84931577013</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -8190,6 +8398,12 @@
           <t>2-s2.0-84931562638</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8412,6 +8626,12 @@
         <is>
           <t>2-s2.0-84937645200</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -8620,6 +8840,12 @@
           <t>2-s2.0-84929842158</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8842,6 +9068,12 @@
         <is>
           <t>2-s2.0-84929840244</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -9054,6 +9286,12 @@
           <t>2-s2.0-84929841556</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9277,6 +9515,12 @@
           <t>2-s2.0-84929842717</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9496,6 +9740,12 @@
           <t>2-s2.0-84929842207</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9715,6 +9965,12 @@
           <t>2-s2.0-84929836830</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9934,6 +10190,12 @@
           <t>2-s2.0-84928588610</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10152,6 +10414,12 @@
         <is>
           <t>2-s2.0-84928583562</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -10364,6 +10632,12 @@
           <t>2-s2.0-84928589476</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10579,6 +10853,12 @@
           <t>2-s2.0-84928581872</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10798,6 +11078,12 @@
           <t>2-s2.0-84928589057</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11021,6 +11307,12 @@
           <t>2-s2.0-84928584798</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11244,6 +11536,12 @@
           <t>2-s2.0-84928584276</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11458,6 +11756,12 @@
         <is>
           <t>2-s2.0-84926408695</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -11670,6 +11974,12 @@
           <t>2-s2.0-84926421290</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11880,6 +12190,12 @@
         <is>
           <t>2-s2.0-84926419615</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -12092,6 +12408,12 @@
           <t>2-s2.0-84926416686</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12311,6 +12633,12 @@
           <t>2-s2.0-84926410390</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12525,6 +12853,12 @@
         <is>
           <t>2-s2.0-84926408880</t>
         </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -12737,6 +13071,12 @@
           <t>2-s2.0-84926418532</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12948,6 +13288,12 @@
           <t>2-s2.0-84926420705</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13171,6 +13517,12 @@
           <t>2-s2.0-84925053642</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13400,6 +13752,12 @@
           <t>2-s2.0-84925168702</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13619,6 +13977,12 @@
           <t>2-s2.0-84925037848</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13838,6 +14202,12 @@
           <t>2-s2.0-84925155194</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14057,6 +14427,12 @@
           <t>2-s2.0-84925092286</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14276,6 +14652,12 @@
           <t>2-s2.0-84925052960</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14495,6 +14877,12 @@
           <t>2-s2.0-84925039068</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14718,6 +15106,12 @@
           <t>2-s2.0-84922658654</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14933,6 +15327,12 @@
           <t>2-s2.0-84922672198</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15156,6 +15556,12 @@
           <t>2-s2.0-84922684275</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15379,6 +15785,12 @@
           <t>2-s2.0-84922620516</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15606,6 +16018,12 @@
           <t>2-s2.0-84922671491</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15825,6 +16243,12 @@
           <t>2-s2.0-84922599406</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16044,6 +16468,12 @@
           <t>2-s2.0-84921411908</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16266,6 +16696,12 @@
         <is>
           <t>2-s2.0-84921418910</t>
         </is>
+      </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -16478,6 +16914,12 @@
           <t>2-s2.0-84921359045</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16697,6 +17139,12 @@
           <t>2-s2.0-84921414966</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16916,6 +17364,12 @@
           <t>2-s2.0-84921373105</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17135,6 +17589,12 @@
           <t>2-s2.0-84921323777</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17362,6 +17822,12 @@
           <t>2-s2.0-84921375233</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17581,6 +18047,12 @@
           <t>2-s2.0-84921361151</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17804,6 +18276,12 @@
           <t>2-s2.0-84918840995</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18026,6 +18504,12 @@
         <is>
           <t>2-s2.0-84918825940</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -18238,6 +18722,12 @@
           <t>2-s2.0-84918770902</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18449,6 +18939,12 @@
           <t>2-s2.0-84918775605</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18668,6 +19164,12 @@
           <t>2-s2.0-84918777093</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18887,6 +19389,12 @@
           <t>2-s2.0-84918812575</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19106,6 +19614,12 @@
           <t>2-s2.0-84909966239</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19324,6 +19838,12 @@
         <is>
           <t>2-s2.0-84909981812</t>
         </is>
+      </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -19536,6 +20056,12 @@
           <t>2-s2.0-84909950934</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19747,6 +20273,12 @@
           <t>2-s2.0-84909971603</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19965,6 +20497,12 @@
         <is>
           <t>2-s2.0-84909959653</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -20177,6 +20715,12 @@
           <t>2-s2.0-84909957050</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
